--- a/business canvas model.xlsx
+++ b/business canvas model.xlsx
@@ -1430,45 +1430,49 @@
 </t>
   </si>
   <si>
-    <t>Producenci: filtrów, pomp, zbiorników i innych elementów systemu</t>
-  </si>
-  <si>
-    <t>Zapoznanie się ze stanowiskiem
-Stworzenie modeli w języku SysML
-Stworzenie modelu w Simulinku
-Napisanie kodu programu w Matlabie
-Opracowanie systemu archiwizacji danych
-Projekt interfejsu operatora
-Tworzenie instrukcji
-Tworzenie dokumentacji technicznej</t>
-  </si>
-  <si>
-    <t>Alternatywne źródło wody</t>
-  </si>
-  <si>
-    <t>Elastyczność wykorzystania, 5 letnia gwarancja na sprzet, 3 pierwsze serwisy w cenie zakupu (serwis konieczny co pół roku), 30 dniowy trial aplikacji mobilnej (do kontroli i podglądu stanu systemu)</t>
-  </si>
-  <si>
-    <t>Masowo, ogólnie, kluby piłkarskie, pola golfowe, właściciele domków jednorodzinnych, ogródków działkowych oraz domków letniskowych</t>
-  </si>
-  <si>
-    <t>Podstawowa znajomość języków programowania graficznego, teorii sterowania, praw fizyki, języka angielskiego
-Aparatura : komputer, karta Advantech, model fizyczny układu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bezpośrednio, social media, reklamy (bilboardy, nadruki na strojach piłkarskich) </t>
-  </si>
-  <si>
-    <t>zakup licencji Matlaba, Simulinka i pluginow, prąd, czas</t>
-  </si>
-  <si>
-    <t>Sprzedaż systemu (zbiorniki, pompy, oprogramowanie), montaż, aplikacja mobilna (po 30 dniach), reklama na zbiornikach, późniejszy serwis</t>
-  </si>
-  <si>
     <t>Instalacja najnowszej wersji Matlaba</t>
   </si>
   <si>
     <t>Dokładne zapoznanie się ze stanowiskiem pracy, określenie celu biznesowego</t>
+  </si>
+  <si>
+    <t>1) świeża trawa
+2) dostarczenie wody do modułów na stacji kosmicznej
+3) rozszerzenie funkcjonalności stawów rybnych</t>
+  </si>
+  <si>
+    <t>1) kluby piłkarskie, właściciele domów z ogródkami
+2) mieszkańcy stacji kosmicznej
+3) właściciele produkcji ryb</t>
+  </si>
+  <si>
+    <t>Bilboard, social media, www, reklama na strojach piłkarskich, ulotki, kontakt bezpośredni (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabaty, promocje, długa gwarancja, serwis, gratisy, kontakt bezpośredni, </t>
+  </si>
+  <si>
+    <t>produkt, usługi dodatkowe, upusty</t>
+  </si>
+  <si>
+    <t>Zaplanowanie pracy
+Rozdzielenie zadań
+Wykonanie przydzielonych zadań
+Udokumentowanie</t>
+  </si>
+  <si>
+    <t>mechanika, informatyk, automatyk, architekt zieleni
+PC, narzędzia, materiały, stanowisko</t>
+  </si>
+  <si>
+    <t>zakup licencji Matlaba, Simulinka i pluginow, prąd, PRACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dostawcy komponentów
+CBK, NASA (2)
+ZUT
+Jeden z właścicieli farm rybnych (3)
+Botanik </t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2459,7 +2463,7 @@
         <v>355</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E14" s="9">
         <v>5</v>
@@ -2471,7 +2475,7 @@
         <v>356</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E15" s="9">
         <v>7.5</v>
@@ -2573,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
@@ -2620,20 +2624,20 @@
     </row>
     <row r="3" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>438</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>439</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2648,15 +2652,15 @@
       </c>
       <c r="G4" s="63"/>
     </row>
-    <row r="5" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="70"/>
       <c r="F5" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G5" s="64"/>
     </row>
@@ -2674,12 +2678,12 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="59"/>
       <c r="E7" s="57" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="59"/>
@@ -5457,6 +5461,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A76:A100"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A41"/>
+    <mergeCell ref="A42:A57"/>
+    <mergeCell ref="A58:A75"/>
     <mergeCell ref="A146:A152"/>
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="A156:A161"/>
@@ -5466,12 +5476,6 @@
     <mergeCell ref="A131:A137"/>
     <mergeCell ref="A138:A141"/>
     <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A76:A100"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A41"/>
-    <mergeCell ref="A42:A57"/>
-    <mergeCell ref="A58:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5983,6 +5987,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A29"/>
@@ -5990,12 +6000,6 @@
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/business canvas model.xlsx
+++ b/business canvas model.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ania\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7905" tabRatio="804" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7680" tabRatio="804" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="P03" sheetId="12" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <sheet name="rS1" sheetId="5" state="hidden" r:id="rId9"/>
     <sheet name="MB_template" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1449,20 +1454,10 @@
     <t>Bilboard, social media, www, reklama na strojach piłkarskich, ulotki, kontakt bezpośredni (2)</t>
   </si>
   <si>
-    <t xml:space="preserve">rabaty, promocje, długa gwarancja, serwis, gratisy, kontakt bezpośredni, </t>
-  </si>
-  <si>
-    <t>produkt, usługi dodatkowe, upusty</t>
-  </si>
-  <si>
     <t>Zaplanowanie pracy
 Rozdzielenie zadań
 Wykonanie przydzielonych zadań
 Udokumentowanie</t>
-  </si>
-  <si>
-    <t>mechanika, informatyk, automatyk, architekt zieleni
-PC, narzędzia, materiały, stanowisko</t>
   </si>
   <si>
     <t>zakup licencji Matlaba, Simulinka i pluginow, prąd, PRACA</t>
@@ -1473,6 +1468,16 @@
 ZUT
 Jeden z właścicieli farm rybnych (3)
 Botanik </t>
+  </si>
+  <si>
+    <t>rabaty, promocje, długa gwarancja, serwis, gratisy, kontakt bezpośredni, trial</t>
+  </si>
+  <si>
+    <t>produkt, usługi dodatkowe, upusty/ rabaty od dostaw (partnerstwo)</t>
+  </si>
+  <si>
+    <t>mechanika, informatyk, automatyk, architekt zieleni
+PC, soft, narzędzia, materiały, stanowisko</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1951,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2216,7 +2221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2577,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2624,17 +2629,17 @@
     </row>
     <row r="3" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>438</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>439</v>
@@ -2655,7 +2660,7 @@
     <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="70"/>
@@ -2678,12 +2683,12 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="59"/>
       <c r="E7" s="57" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="59"/>
@@ -5461,12 +5466,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A76:A100"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A41"/>
-    <mergeCell ref="A42:A57"/>
-    <mergeCell ref="A58:A75"/>
     <mergeCell ref="A146:A152"/>
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="A156:A161"/>
@@ -5476,6 +5475,12 @@
     <mergeCell ref="A131:A137"/>
     <mergeCell ref="A138:A141"/>
     <mergeCell ref="A142:A145"/>
+    <mergeCell ref="A76:A100"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A41"/>
+    <mergeCell ref="A42:A57"/>
+    <mergeCell ref="A58:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5791,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>231</v>
       </c>
@@ -5987,12 +5992,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A22"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A29"/>
@@ -6000,6 +5999,12 @@
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/business canvas model.xlsx
+++ b/business canvas model.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ania\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7680" tabRatio="804" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7905" tabRatio="804" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="P03" sheetId="12" r:id="rId1"/>
@@ -23,7 +18,7 @@
     <sheet name="rS1" sheetId="5" state="hidden" r:id="rId9"/>
     <sheet name="MB_template" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1454,10 +1449,20 @@
     <t>Bilboard, social media, www, reklama na strojach piłkarskich, ulotki, kontakt bezpośredni (2)</t>
   </si>
   <si>
+    <t xml:space="preserve">rabaty, promocje, długa gwarancja, serwis, gratisy, kontakt bezpośredni, </t>
+  </si>
+  <si>
+    <t>produkt, usługi dodatkowe, upusty</t>
+  </si>
+  <si>
     <t>Zaplanowanie pracy
 Rozdzielenie zadań
 Wykonanie przydzielonych zadań
 Udokumentowanie</t>
+  </si>
+  <si>
+    <t>mechanika, informatyk, automatyk, architekt zieleni
+PC, narzędzia, materiały, stanowisko</t>
   </si>
   <si>
     <t>zakup licencji Matlaba, Simulinka i pluginow, prąd, PRACA</t>
@@ -1468,16 +1473,6 @@
 ZUT
 Jeden z właścicieli farm rybnych (3)
 Botanik </t>
-  </si>
-  <si>
-    <t>rabaty, promocje, długa gwarancja, serwis, gratisy, kontakt bezpośredni, trial</t>
-  </si>
-  <si>
-    <t>produkt, usługi dodatkowe, upusty/ rabaty od dostaw (partnerstwo)</t>
-  </si>
-  <si>
-    <t>mechanika, informatyk, automatyk, architekt zieleni
-PC, soft, narzędzia, materiały, stanowisko</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1946,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2221,7 +2216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2582,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2629,17 +2624,17 @@
     </row>
     <row r="3" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>438</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>439</v>
@@ -2660,7 +2655,7 @@
     <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="70"/>
@@ -2683,12 +2678,12 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="59"/>
       <c r="E7" s="57" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="59"/>
@@ -5466,6 +5461,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A76:A100"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A41"/>
+    <mergeCell ref="A42:A57"/>
+    <mergeCell ref="A58:A75"/>
     <mergeCell ref="A146:A152"/>
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="A156:A161"/>
@@ -5475,12 +5476,6 @@
     <mergeCell ref="A131:A137"/>
     <mergeCell ref="A138:A141"/>
     <mergeCell ref="A142:A145"/>
-    <mergeCell ref="A76:A100"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A41"/>
-    <mergeCell ref="A42:A57"/>
-    <mergeCell ref="A58:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5796,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>231</v>
       </c>
@@ -5992,6 +5987,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A29"/>
@@ -5999,12 +6000,6 @@
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
